--- a/biology/Médecine/Benzolisme/Benzolisme.xlsx
+++ b/biology/Médecine/Benzolisme/Benzolisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication au benzène soit reconnue comme maladie professionnelle.
 </t>
@@ -511,34 +523,367 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime général
-Régime agricole
-Données professionnelles
-Utilisations
-Avant les années 1920, le benzène était fréquemment utilisé comme solvant industriel, particulièrement pour dégraisser les métaux. Lorsque sa toxicité devint évidente, il fut remplacé par d'autres solvants pour les applications nécessitant une exposition directe de l'utilisateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant les années 1920, le benzène était fréquemment utilisé comme solvant industriel, particulièrement pour dégraisser les métaux. Lorsque sa toxicité devint évidente, il fut remplacé par d'autres solvants pour les applications nécessitant une exposition directe de l'utilisateur.
 Le benzène est utilisé en majeure partie comme intermédiaire dans la synthèse d'autres composés chimiques. Les dérivés du benzène produits dans les plus grandes quantités sont le styrène, utilisé pour fabriquer des polymères et des plastiques, le phénol, utilisé pour fabriquer des résines et des adhésifs, et le cyclohexane, utilisé pour fabriquer le nylon. Des quantités moins importantes de benzène sont utilisées dans la fabrication de pneus, de lubrifiants, de colorants, de détergents, de médicaments, d'explosifs ou de pesticides. Dans les années 1980, les principaux composés produits à partir de benzène étaient l'éthylbenzène (intermédiaire pour la fabrication du styrène) avec 48 % de la consommation du benzène utilisé pour la synthèse, le cumène 18 %, le cyclohexane 15 % et le nitrobenzène 7 %.
-En tant qu'additif à l'essence, le benzène permet d'augmenter l'indice d'octane, agissant donc comme antidétonant. De ce fait, jusque dans les années 1950 l'essence contenait fréquemment quelques pour cent de benzène, quand il fut remplacé par le tétraéthylplomb dans les additifs antidétonants les plus utilisés. Cependant, le benzène a fait son retour dans de nombreux pays à la suite des réglementations concernant la teneur en plomb de l'essence. Aux É.-U., les préoccupations concernant ses effets nocifs sur la santé et la possibilité de contamination des nappes phréatiques ont conduit à la mise en place d'une réglementation stricte concernant la teneur en benzène des carburants avec une limite voisine de 1 %[3]. En Europe, cette même limite de 1 % a été fixée.
-Exposition
-Les risques d'expositions sont surtout liés aux lieux et pratiques industrielles, de recherche (laboratoires) ou à l'industrie du parfum. Une exposition chronique est néanmoins possible avec l'essence ; En 2008, la Commission européenne a mis en consultation[4] un projet de rendre obligatoires la récupération des vapeurs d’essence lors du remplissage des réservoirs des véhicules dans les stations-service. La récupération est déjà obligatoire dans l'UE lors du stockage et livraison d’essence des terminaux aux stations-service[5].
-Données médicales
-Effets sur la santé
-L'intoxication par le benzène seul porte le nom de benzénisme ; celle par le benzène ou par ses dérivés (toluène, xylène...) porte le nom de benzolisme.
+En tant qu'additif à l'essence, le benzène permet d'augmenter l'indice d'octane, agissant donc comme antidétonant. De ce fait, jusque dans les années 1950 l'essence contenait fréquemment quelques pour cent de benzène, quand il fut remplacé par le tétraéthylplomb dans les additifs antidétonants les plus utilisés. Cependant, le benzène a fait son retour dans de nombreux pays à la suite des réglementations concernant la teneur en plomb de l'essence. Aux É.-U., les préoccupations concernant ses effets nocifs sur la santé et la possibilité de contamination des nappes phréatiques ont conduit à la mise en place d'une réglementation stricte concernant la teneur en benzène des carburants avec une limite voisine de 1 %. En Europe, cette même limite de 1 % a été fixée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Exposition</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les risques d'expositions sont surtout liés aux lieux et pratiques industrielles, de recherche (laboratoires) ou à l'industrie du parfum. Une exposition chronique est néanmoins possible avec l'essence ; En 2008, la Commission européenne a mis en consultation un projet de rendre obligatoires la récupération des vapeurs d’essence lors du remplissage des réservoirs des véhicules dans les stations-service. La récupération est déjà obligatoire dans l'UE lors du stockage et livraison d’essence des terminaux aux stations-service.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Effets sur la santé</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intoxication par le benzène seul porte le nom de benzénisme ; celle par le benzène ou par ses dérivés (toluène, xylène...) porte le nom de benzolisme.
 L'inhalation d'un taux très élevé de benzène peut causer la mort, tandis que des taux élevés peuvent occasionner des somnolences, des vertiges, une accélération du rythme cardiaque, des maux de tête, des tremblements, la confusion ou la perte de connaissance. Une exposition de cinq à dix minutes à un taux de benzène dans l'air de 2 % environ suffit pour entraîner la mort. La dose létale par ingestion est de 50 mg/kg. L'ingestion de nourriture ou de boissons contenant des taux élevés de benzène peut occasionner des vomissements, une irritation de l'estomac, des vertiges, des somnolences, des convulsions, une accélération du rythme cardiaque, voire la mort.
 L'effet principal d'une exposition chronique au benzène est un endommagement de la moelle osseuse, qui peut occasionner une décroissance du taux de globules rouges dans le sang et une anémie. Il peut également occasionner des saignements et un affaiblissement du système immunitaire. L'effet du benzène sur la fertilité de l'homme ou le bon développement du fœtus n'est pas connu. Enfin, le benzène est reconnu comme étant une substance cancérigène.
 La valeur moyenne d'exposition professionnelle (VME) dans l'Union européenne est fixée par la réglementation à 1 ppm soit 3,5 mg.m-3 sur 8 heures. La teneur en benzène des eaux destinées à la consommation humaine ne doit pas dépasser 1 µg/l (à l'exception des eaux minérales).
 Une des expositions, du grand public mais aussi des professionnels, au benzène est au niveau des stations service, puisqu'il y a toujours un peu de benzène dans le carburant : au moment du remplissage du réservoir, le pistolet peut laisser échapper une petite partie de benzène (volatil), qui est alors inhalée par le client (ou le professionnel). Les pistolets peuvent être munis d'une protection. Celle-ci est obligatoire dans certains États comme la Californie.
-Propriétés cancérigènes du benzène
-Elles proviennent de ce qu'il se comporte comme un agent intercalant (c’est-à-dire qu'il se glisse entre les bases nucléotidiques des acides nucléiques, dont l'ADN, provoquant des erreurs de lecture et/ou de réplication) (On connaît d'autres agents intercalants (comme le bromure d'éthidium, ou BET, utilisé en biologie expérimentale pour marquer l'ADN notamment au cours des électrophorèses). Tous les composés plans ne sont toutefois pas cancérigènes. L'acide benzoïque, par exemple, très proche du benzène, et dont la base conjuguée est absolument plane, n'est pas cancérigène[6] (il est utilisé comme conservateur dans divers types de soda). De même la phénylalanine, un acide aminé qui comporte un groupement phényle (un cycle benzénique), n'est pas cancérigène).
-Étiquetage Phrases de risque et conseil de prudence
-Le benzène est un composé chimique dangereux, qui doit être manipulé et utilisé avec beaucoup de précautions. Il doit être stocké entre 15 et 25 °C.
-D'après la fiche de l'INRS (France)
-D'après la fiche internationale de sécurité
 </t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Propriétés cancérigènes du benzène</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles proviennent de ce qu'il se comporte comme un agent intercalant (c’est-à-dire qu'il se glisse entre les bases nucléotidiques des acides nucléiques, dont l'ADN, provoquant des erreurs de lecture et/ou de réplication) (On connaît d'autres agents intercalants (comme le bromure d'éthidium, ou BET, utilisé en biologie expérimentale pour marquer l'ADN notamment au cours des électrophorèses). Tous les composés plans ne sont toutefois pas cancérigènes. L'acide benzoïque, par exemple, très proche du benzène, et dont la base conjuguée est absolument plane, n'est pas cancérigène (il est utilisé comme conservateur dans divers types de soda). De même la phénylalanine, un acide aminé qui comporte un groupement phényle (un cycle benzénique), n'est pas cancérigène).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Étiquetage Phrases de risque et conseil de prudence</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le benzène est un composé chimique dangereux, qui doit être manipulé et utilisé avec beaucoup de précautions. Il doit être stocké entre 15 et 25 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étiquetage Phrases de risque et conseil de prudence</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D'après la fiche de l'INRS (France)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Benzolisme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benzolisme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Étiquetage Phrases de risque et conseil de prudence</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D'après la fiche internationale de sécurité</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
